--- a/Mergers_Acquisitions/raw/Variables M&A.xlsx
+++ b/Mergers_Acquisitions/raw/Variables M&A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usachcl-my.sharepoint.com/personal/tomas_bustamante_h_usach_cl/Documents/Banco_Central/Mergers_Acquisitions/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{64F7E644-2CD6-476E-A765-FB42F55345CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECF23BB7-7607-4BC6-87D7-F1262B31F020}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{64F7E644-2CD6-476E-A765-FB42F55345CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{855BE853-68E7-4488-AF06-B9B6C69C4195}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="2025" windowWidth="21600" windowHeight="11295" xr2:uid="{6336CEAF-F665-4ABB-8A1F-1775ED84F777}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6336CEAF-F665-4ABB-8A1F-1775ED84F777}"/>
   </bookViews>
   <sheets>
     <sheet name="USA" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
   <si>
     <t>Variable</t>
   </si>
@@ -54,9 +54,6 @@
     <t>BEA USA</t>
   </si>
   <si>
-    <t>Annual Percent Change (rate of inflation)</t>
-  </si>
-  <si>
     <t>1913-2022</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Unemployment Rate, Seasonally Adjusted, Monthly, 16 years and over</t>
   </si>
   <si>
-    <t>1919-2023</t>
-  </si>
-  <si>
     <t>1948-2023</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>Annual, Millions of Dollars</t>
   </si>
   <si>
-    <t>1947 - 2021</t>
-  </si>
-  <si>
     <t>GDP By Industries Anually, Millions of Dollars, Anually</t>
   </si>
   <si>
@@ -280,13 +271,133 @@
   </si>
   <si>
     <t>Acquisitions in Manufacturing and Mining, Total Assets M $US</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Direct Link</t>
+  </si>
+  <si>
+    <t>Banco_Central/gdp_usa_1929_2022.xlsx at master · tomas-bustamante-h/Banco_Central (github.com)</t>
+  </si>
+  <si>
+    <t>BEA Interactive Data Application</t>
+  </si>
+  <si>
+    <t>Annual Percent Change (rate of inflation) 1983 = 100</t>
+  </si>
+  <si>
+    <t>Consumer Price Index, 1913- | Federal Reserve Bank of Minneapolis (minneapolisfed.org)</t>
+  </si>
+  <si>
+    <t>Banco_Central/cpi_usa_1913_2022.xlsx at master · tomas-bustamante-h/Banco_Central (github.com)</t>
+  </si>
+  <si>
+    <t>Bureau of Labor Statistics Data (bls.gov)</t>
+  </si>
+  <si>
+    <t>Banco_Central/UNEM_RATE_SEAS_USA.xlsx at master · tomas-bustamante-h/Banco_Central (github.com)</t>
+  </si>
+  <si>
+    <t>1953-2023</t>
+  </si>
+  <si>
+    <t>FRB H15: Data Download Program - Choose (federalreserve.gov)</t>
+  </si>
+  <si>
+    <t>Banco_Central/FRB_H15.csv at master · tomas-bustamante-h/Banco_Central (github.com)</t>
+  </si>
+  <si>
+    <t>3M_TM_USA</t>
+  </si>
+  <si>
+    <t>3-month Treasury bill secondary market rate   discount basis</t>
+  </si>
+  <si>
+    <t>1939-2023</t>
+  </si>
+  <si>
+    <t>Banco_Central/gdpbyind_go_1947_1997.xlsx at master · tomas-bustamante-h/Banco_Central (github.com)</t>
+  </si>
+  <si>
+    <t>1997-2021</t>
+  </si>
+  <si>
+    <t>1947-1997</t>
+  </si>
+  <si>
+    <t>Appendix C Tables Underlying Material Presented in the Text (nber.org)</t>
+  </si>
+  <si>
+    <t>wp243_0.pdf (ftc.gov)</t>
+  </si>
+  <si>
+    <t>Banco_Central/firm_disappearances _merger_1895_1955_nelson_1959.xlsx at master · tomas-bustamante-h/Banco_Central (github.com)</t>
+  </si>
+  <si>
+    <t>Banco_Central/mergers_divestitures_disclosed_value_1968_2000_pautler_2001.xlsx at master · tomas-bustamante-h/Banco_Central (github.com)</t>
+  </si>
+  <si>
+    <t>https://hdl.handle.net/2027/umn.31951d01223340i</t>
+  </si>
+  <si>
+    <t>Banco_Central/large_acquisitions_in _manufacturing_and_mining_1948_1979_ftc.xlsx at master · tomas-bustamante-h/Banco_Central (github.com)</t>
+  </si>
+  <si>
+    <t>GDP quarterly national accounts time series - Office for National Statistics (ons.gov.uk)</t>
+  </si>
+  <si>
+    <t>Banco_Central/qna.xlsx at master · tomas-bustamante-h/Banco_Central (github.com)</t>
+  </si>
+  <si>
+    <t>Research datasets | Bank of England</t>
+  </si>
+  <si>
+    <t>Consumer price inflation time series - Office for National Statistics</t>
+  </si>
+  <si>
+    <t>Banco_Central/a_millennium_of_macroeconomic_data_for_the_uk.xlsx at master · tomas-bustamante-h/Banco_Central (github.com)</t>
+  </si>
+  <si>
+    <t>Banco_Central/mm23.xlsx at master · tomas-bustamante-h/Banco_Central (github.com)</t>
+  </si>
+  <si>
+    <t>A02 SA: Employment, unemployment and economic inactivity for people aged 16 and over and aged from 16 to 64 (seasonally adjusted) - Office for National Statistics (ons.gov.uk)</t>
+  </si>
+  <si>
+    <t>Banco_Central/a02safeb2023.xls at master · tomas-bustamante-h/Banco_Central (github.com)</t>
+  </si>
+  <si>
+    <t>Interest rates and Bank Rate | Bank of England</t>
+  </si>
+  <si>
+    <t>Banco_Central/BASERATE.xls at master · tomas-bustamante-h/Banco_Central (github.com)</t>
+  </si>
+  <si>
+    <t>Bank of England | Database</t>
+  </si>
+  <si>
+    <t>Banco_Central/ANNUAL_PAR_MATURITY_10.csv at master · tomas-bustamante-h/Banco_Central (github.com)</t>
+  </si>
+  <si>
+    <t>Index of Production time series - Office for National Statistics (ons.gov.uk)</t>
+  </si>
+  <si>
+    <t>Banco_Central/diop.xlsx at master · tomas-bustamante-h/Banco_Central (github.com)</t>
+  </si>
+  <si>
+    <t>Mergers and acquisitions involving UK companies time series - Office for National Statistics</t>
+  </si>
+  <si>
+    <t>Banco_Central/am.xlsx at master · tomas-bustamante-h/Banco_Central (github.com)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +415,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -408,10 +527,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -446,8 +566,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -764,10 +888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C9B48A-771F-4265-A44A-57D00F4557A8}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,14 +901,16 @@
     <col min="2" max="2" width="194.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="133.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -791,13 +918,19 @@
       <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -805,162 +938,272 @@
       <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E5" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="B10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="B11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="20"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="11" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B17" s="13" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>62</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/gdp_usa_1929_2022.xlsx" xr:uid="{A341763E-FFED-4CEC-B886-C2EE45C4FB9F}"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://apps.bea.gov/iTable/?isuri=1&amp;reqid=19&amp;step=4&amp;categories=flatfiles&amp;nipa_table_list=1" xr:uid="{34E5BB72-C1F2-4F88-8AAF-30079B8E1906}"/>
+    <hyperlink ref="E3" r:id="rId3" display="https://www.minneapolisfed.org/about-us/monetary-policy/inflation-calculator/consumer-price-index-1913-" xr:uid="{34005D91-AE20-43F9-9BD0-C62045EB5DCC}"/>
+    <hyperlink ref="F3" r:id="rId4" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/cpi_usa_1913_2022.xlsx" xr:uid="{986BB670-42DC-41A6-967A-25A7B4047CDD}"/>
+    <hyperlink ref="E4" r:id="rId5" display="https://data.bls.gov/timeseries/LNS14000000" xr:uid="{ED3B8DCA-3123-4B8B-9BC5-71F45515CBCA}"/>
+    <hyperlink ref="F4" r:id="rId6" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/UNEM_RATE_SEAS_USA.xlsx" xr:uid="{3FCB56F9-0C24-4A48-A509-C70B610E393C}"/>
+    <hyperlink ref="E6" r:id="rId7" display="https://www.federalreserve.gov/datadownload/Choose.aspx?rel=H15" xr:uid="{3A62632C-FA6F-4956-99D4-C194A532A285}"/>
+    <hyperlink ref="F6" r:id="rId8" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/FRB_H15.csv" xr:uid="{C43B85A1-522D-45CB-8983-F97817C899A5}"/>
+    <hyperlink ref="E5" r:id="rId9" display="https://www.federalreserve.gov/datadownload/Choose.aspx?rel=H15" xr:uid="{851F4CC8-028B-4673-A20A-80CC3CB2F804}"/>
+    <hyperlink ref="E7" r:id="rId10" location="eyJhcHBpZCI6MTUwLCJzdGVwcyI6WzEsMl0sImRhdGEiOltbImNhdGVnb3JpZXMiLCJHZHB4SW5kIl1dfQ==" display="https://apps.bea.gov/iTable/?reqid=150&amp;step=2&amp;isuri=1&amp;categories=gdpxind - eyJhcHBpZCI6MTUwLCJzdGVwcyI6WzEsMl0sImRhdGEiOltbImNhdGVnb3JpZXMiLCJHZHB4SW5kIl1dfQ==" xr:uid="{2CC579C6-79B0-472E-8D2A-A7D60CFFFE41}"/>
+    <hyperlink ref="F7" r:id="rId11" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/gdpbyind_go_1947_1997.xlsx" xr:uid="{1AE1E18A-30AF-4937-862E-67DBC24995CC}"/>
+    <hyperlink ref="E8" r:id="rId12" display="https://apps.bea.gov/iTable/?reqid=147&amp;step=2" xr:uid="{D07A48FB-0815-4455-AD7E-46AA2FE37109}"/>
+    <hyperlink ref="F8" r:id="rId13" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/gdpbyind_go_1947_1997.xlsx" xr:uid="{EBB030F4-F616-40A1-BA97-46AF1C27F824}"/>
+    <hyperlink ref="E9" r:id="rId14" display="https://www.nber.org/system/files/chapters/c2531/c2531.pdf" xr:uid="{7BCD4B2C-A350-4EEE-81CC-227004442653}"/>
+    <hyperlink ref="E10" r:id="rId15" display="https://www.ftc.gov/sites/default/files/documents/reports/evidence-mergers-and-acquisitions/wp243_0.pdf" xr:uid="{7D38446B-AE55-4888-B823-E4439924C3C8}"/>
+    <hyperlink ref="F9" r:id="rId16" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/firm_disappearances _merger_1895_1955_nelson_1959.xlsx" xr:uid="{43CC0F1B-A44C-43C5-AC0F-88E6CD8FF7D6}"/>
+    <hyperlink ref="F10" r:id="rId17" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/mergers_divestitures_disclosed_value_1968_2000_pautler_2001.xlsx" xr:uid="{CEFBDA1B-B4E0-422B-B3ED-BD5E32028CC3}"/>
+    <hyperlink ref="E11" r:id="rId18" xr:uid="{8C1FD938-35B0-4D56-8280-DA850225F51D}"/>
+    <hyperlink ref="F11" r:id="rId19" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/large_acquisitions_in _manufacturing_and_mining_1948_1979_ftc.xlsx" xr:uid="{6B5F6664-2281-4348-A065-AD23660A89CA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -968,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F1120D-7530-4920-94D8-B194B10F275E}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,14 +1220,16 @@
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="121.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -992,213 +1237,301 @@
       <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="B6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="D10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://www.ons.gov.uk/economy/grossdomesticproductgdp/datasets/quarterlynationalaccounts" xr:uid="{716E02B9-20DC-442A-9D9B-4351E2DCC923}"/>
+    <hyperlink ref="F2" r:id="rId2" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/qna.xlsx" xr:uid="{B037C59A-124D-4E47-8BE7-2B537DD55B7D}"/>
+    <hyperlink ref="E3" r:id="rId3" display="https://www.bankofengland.co.uk/statistics/research-datasets" xr:uid="{0F4B54D9-B193-442D-9FFC-433F0CB0220D}"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://www.bankofengland.co.uk/statistics/research-datasets" xr:uid="{FE470F39-9EFC-438F-8DC6-59570F18E547}"/>
+    <hyperlink ref="E8" r:id="rId5" display="https://www.bankofengland.co.uk/statistics/research-datasets" xr:uid="{9AAC61A2-19DF-49B7-A105-1BA3E95F1AEF}"/>
+    <hyperlink ref="E4" r:id="rId6" display="https://www.ons.gov.uk/economy/inflationandpriceindices/datasets/consumerpriceindices" xr:uid="{9AE88D25-96F9-4615-91BA-3394DE2F551D}"/>
+    <hyperlink ref="F3" r:id="rId7" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/a_millennium_of_macroeconomic_data_for_the_uk.xlsx" xr:uid="{CD8C9DB9-5927-44C7-BD34-8C8D8BC322EA}"/>
+    <hyperlink ref="F5" r:id="rId8" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/a_millennium_of_macroeconomic_data_for_the_uk.xlsx" xr:uid="{38AEA4FB-4D31-43DF-BCAD-9800C73BB2D6}"/>
+    <hyperlink ref="F8" r:id="rId9" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/a_millennium_of_macroeconomic_data_for_the_uk.xlsx" xr:uid="{31C331E2-D8BE-4E04-8578-60B128840C84}"/>
+    <hyperlink ref="F4" r:id="rId10" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/mm23.xlsx" xr:uid="{1CADEE8D-29F9-4B76-8478-4FAF25DCE016}"/>
+    <hyperlink ref="E6" r:id="rId11" display="https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/employmentunemploymentandeconomicinactivityforpeopleaged16andoverandagedfrom16to64seasonallyadjusteda02sa" xr:uid="{4D556C06-9959-407D-BA93-C1CB955500C2}"/>
+    <hyperlink ref="F6" r:id="rId12" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/a02safeb2023.xls" xr:uid="{9B1221EA-4FFA-4785-B736-B8B961E93D4A}"/>
+    <hyperlink ref="E7" r:id="rId13" display="https://www.bankofengland.co.uk/monetary-policy/the-interest-rate-bank-rate" xr:uid="{12AAD959-3234-45E7-BF20-A1C37E2B4470}"/>
+    <hyperlink ref="F7" r:id="rId14" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/BASERATE.xls" xr:uid="{9CA150F1-5C60-4597-A082-54858CE916DF}"/>
+    <hyperlink ref="E9" r:id="rId15" location="BM" display="https://www.bankofengland.co.uk/boeapps/database/index.asp?Travel=NIxIRx&amp;levels=1&amp;XNotes=Y&amp;C=DUS&amp;G0Xtop.x=51&amp;G0Xtop.y=7&amp;XNotes2=Y&amp;Nodes=X41514X41515X41516X41517X55047X76909X4051X4052X4128X33880X4053X4058&amp;SectionRequired=I&amp;HideNums=-1&amp;ExtraInfo=true - BM" xr:uid="{7BF35FD8-F218-4D3B-A5C4-60B05527E16C}"/>
+    <hyperlink ref="F9" r:id="rId16" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/ANNUAL_PAR_MATURITY_10.csv" xr:uid="{158C9AE9-6D76-40AF-8F4C-22404BD5AC52}"/>
+    <hyperlink ref="E10" r:id="rId17" display="https://www.ons.gov.uk/economy/economicoutputandproductivity/output/datasets/indexofproduction" xr:uid="{B6791EA8-7597-4769-A1FF-B95A4CB4B95D}"/>
+    <hyperlink ref="F10" r:id="rId18" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/diop.xlsx" xr:uid="{0C6F11D2-8FFD-4BD1-A0CE-32A5D55226A7}"/>
+    <hyperlink ref="E11" r:id="rId19" display="https://www.ons.gov.uk/businessindustryandtrade/changestobusiness/mergersandacquisitions/datasets/mergersandacquisitionsuk" xr:uid="{9A04F4A8-1F9A-4C84-9D98-0FE9819543CA}"/>
+    <hyperlink ref="F11" r:id="rId20" display="https://github.com/tomas-bustamante-h/Banco_Central/blob/master/Mergers_Acquisitions/raw/am.xlsx" xr:uid="{EC150D09-73E2-462F-A60F-D875BC870297}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>